--- a/artfynd/A 36528-2023.xlsx
+++ b/artfynd/A 36528-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112472495</v>
       </c>
       <c r="B2" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
